--- a/library/Library_hbrown_08.22.19.xlsx
+++ b/library/Library_hbrown_08.22.19.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/Desktop/3d metadata sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFDDF449-95CC-6045-8510-CC880F080298}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8E6803-5E6E-954B-8B02-B0E3881BA22B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14420" yWindow="2160" windowWidth="19180" windowHeight="16080" xr2:uid="{EF59ECE8-FFDC-AD4D-AC15-EA4DD73E2EB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="69">
   <si>
     <t>s2cDNADate</t>
   </si>
@@ -159,6 +159,84 @@
   </si>
   <si>
     <t>TCAACTG</t>
+  </si>
+  <si>
+    <t>Index1_1</t>
+  </si>
+  <si>
+    <t>Index1_2</t>
+  </si>
+  <si>
+    <t>Index1_3</t>
+  </si>
+  <si>
+    <t>Index1_4</t>
+  </si>
+  <si>
+    <t>Index1_5</t>
+  </si>
+  <si>
+    <t>Index1_6</t>
+  </si>
+  <si>
+    <t>Index1_7</t>
+  </si>
+  <si>
+    <t>Index1_8</t>
+  </si>
+  <si>
+    <t>Index1_9</t>
+  </si>
+  <si>
+    <t>Index1_10</t>
+  </si>
+  <si>
+    <t>Index1_11</t>
+  </si>
+  <si>
+    <t>Index1_12</t>
+  </si>
+  <si>
+    <t>Index1_13</t>
+  </si>
+  <si>
+    <t>Index1_14</t>
+  </si>
+  <si>
+    <t>Index1_15</t>
+  </si>
+  <si>
+    <t>Index1_16</t>
+  </si>
+  <si>
+    <t>Index1_17</t>
+  </si>
+  <si>
+    <t>Index1_18</t>
+  </si>
+  <si>
+    <t>Index1_19</t>
+  </si>
+  <si>
+    <t>Index1_20</t>
+  </si>
+  <si>
+    <t>Index1_21</t>
+  </si>
+  <si>
+    <t>Index1_22</t>
+  </si>
+  <si>
+    <t>Index1_23</t>
+  </si>
+  <si>
+    <t>Index1_24</t>
+  </si>
+  <si>
+    <t>Index1_25</t>
+  </si>
+  <si>
+    <t>Index1_26</t>
   </si>
 </sst>
 </file>
@@ -536,7 +614,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L27"/>
+      <selection activeCell="G2" sqref="G2:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,8 +690,8 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>43</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>14</v>
@@ -664,8 +742,8 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>2</v>
+      <c r="G3" t="s">
+        <v>44</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>18</v>
@@ -702,8 +780,8 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>3</v>
+      <c r="G4" t="s">
+        <v>45</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>19</v>
@@ -740,8 +818,8 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>4</v>
+      <c r="G5" t="s">
+        <v>46</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>20</v>
@@ -778,8 +856,8 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>5</v>
+      <c r="G6" t="s">
+        <v>47</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>21</v>
@@ -816,8 +894,8 @@
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7">
-        <v>6</v>
+      <c r="G7" t="s">
+        <v>48</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>22</v>
@@ -854,8 +932,8 @@
       <c r="F8">
         <v>7</v>
       </c>
-      <c r="G8">
-        <v>7</v>
+      <c r="G8" t="s">
+        <v>49</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>23</v>
@@ -892,8 +970,8 @@
       <c r="F9">
         <v>8</v>
       </c>
-      <c r="G9">
-        <v>8</v>
+      <c r="G9" t="s">
+        <v>50</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>24</v>
@@ -930,8 +1008,8 @@
       <c r="F10">
         <v>9</v>
       </c>
-      <c r="G10">
-        <v>9</v>
+      <c r="G10" t="s">
+        <v>51</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>25</v>
@@ -968,8 +1046,8 @@
       <c r="F11">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>10</v>
+      <c r="G11" t="s">
+        <v>52</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>26</v>
@@ -1006,8 +1084,8 @@
       <c r="F12">
         <v>11</v>
       </c>
-      <c r="G12">
-        <v>11</v>
+      <c r="G12" t="s">
+        <v>53</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>27</v>
@@ -1044,8 +1122,8 @@
       <c r="F13">
         <v>12</v>
       </c>
-      <c r="G13">
-        <v>12</v>
+      <c r="G13" t="s">
+        <v>54</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>28</v>
@@ -1082,8 +1160,8 @@
       <c r="F14">
         <v>13</v>
       </c>
-      <c r="G14">
-        <v>13</v>
+      <c r="G14" t="s">
+        <v>55</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>29</v>
@@ -1120,8 +1198,8 @@
       <c r="F15">
         <v>14</v>
       </c>
-      <c r="G15">
-        <v>14</v>
+      <c r="G15" t="s">
+        <v>56</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>30</v>
@@ -1158,8 +1236,8 @@
       <c r="F16">
         <v>15</v>
       </c>
-      <c r="G16">
-        <v>15</v>
+      <c r="G16" t="s">
+        <v>57</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>31</v>
@@ -1196,8 +1274,8 @@
       <c r="F17">
         <v>16</v>
       </c>
-      <c r="G17">
-        <v>16</v>
+      <c r="G17" t="s">
+        <v>58</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>32</v>
@@ -1234,8 +1312,8 @@
       <c r="F18">
         <v>17</v>
       </c>
-      <c r="G18">
-        <v>17</v>
+      <c r="G18" t="s">
+        <v>59</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>33</v>
@@ -1272,8 +1350,8 @@
       <c r="F19">
         <v>18</v>
       </c>
-      <c r="G19">
-        <v>18</v>
+      <c r="G19" t="s">
+        <v>60</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>34</v>
@@ -1310,8 +1388,8 @@
       <c r="F20">
         <v>19</v>
       </c>
-      <c r="G20">
-        <v>19</v>
+      <c r="G20" t="s">
+        <v>61</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>35</v>
@@ -1348,8 +1426,8 @@
       <c r="F21">
         <v>20</v>
       </c>
-      <c r="G21">
-        <v>20</v>
+      <c r="G21" t="s">
+        <v>62</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>36</v>
@@ -1386,8 +1464,8 @@
       <c r="F22">
         <v>21</v>
       </c>
-      <c r="G22">
-        <v>21</v>
+      <c r="G22" t="s">
+        <v>63</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>37</v>
@@ -1424,8 +1502,8 @@
       <c r="F23">
         <v>22</v>
       </c>
-      <c r="G23">
-        <v>22</v>
+      <c r="G23" t="s">
+        <v>64</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>38</v>
@@ -1462,8 +1540,8 @@
       <c r="F24">
         <v>23</v>
       </c>
-      <c r="G24">
-        <v>23</v>
+      <c r="G24" t="s">
+        <v>65</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>39</v>
@@ -1500,8 +1578,8 @@
       <c r="F25">
         <v>24</v>
       </c>
-      <c r="G25">
-        <v>24</v>
+      <c r="G25" t="s">
+        <v>66</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>40</v>
@@ -1538,8 +1616,8 @@
       <c r="F26">
         <v>25</v>
       </c>
-      <c r="G26">
-        <v>25</v>
+      <c r="G26" t="s">
+        <v>67</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>41</v>
@@ -1576,8 +1654,8 @@
       <c r="F27">
         <v>26</v>
       </c>
-      <c r="G27">
-        <v>26</v>
+      <c r="G27" t="s">
+        <v>68</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>42</v>

--- a/library/Library_hbrown_08.22.19.xlsx
+++ b/library/Library_hbrown_08.22.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8E6803-5E6E-954B-8B02-B0E3881BA22B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8C2E83-FE53-1F4A-9CE8-B1EE35D09ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14420" yWindow="2160" windowWidth="19180" windowHeight="16080" xr2:uid="{EF59ECE8-FFDC-AD4D-AC15-EA4DD73E2EB8}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G27"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/library/Library_hbrown_08.22.19.xlsx
+++ b/library/Library_hbrown_08.22.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8C2E83-FE53-1F4A-9CE8-B1EE35D09ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376F02EB-AABC-B743-951C-6395464EF2CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14420" yWindow="2160" windowWidth="19180" windowHeight="16080" xr2:uid="{EF59ECE8-FFDC-AD4D-AC15-EA4DD73E2EB8}"/>
   </bookViews>
@@ -614,7 +614,7 @@
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
